--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd180</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.702862</v>
+        <v>0.2823265</v>
       </c>
       <c r="H2">
-        <v>1.405724</v>
+        <v>0.564653</v>
       </c>
       <c r="I2">
-        <v>0.002523336240378947</v>
+        <v>0.001772539408491501</v>
       </c>
       <c r="J2">
-        <v>0.001683640290439508</v>
+        <v>0.00118259232591025</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.7074385</v>
+        <v>1.833217</v>
       </c>
       <c r="N2">
-        <v>7.414877000000001</v>
+        <v>3.666434</v>
       </c>
       <c r="O2">
-        <v>0.01643869266670474</v>
+        <v>0.006617563758492739</v>
       </c>
       <c r="P2">
-        <v>0.01102144924648572</v>
+        <v>0.00443051588753594</v>
       </c>
       <c r="Q2">
-        <v>2.605817638987</v>
+        <v>0.5175657393504999</v>
       </c>
       <c r="R2">
-        <v>10.423270555948</v>
+        <v>2.070262957402</v>
       </c>
       <c r="S2">
-        <v>4.148034895034771E-05</v>
+        <v>1.172989255013351E-05</v>
       </c>
       <c r="T2">
-        <v>1.855615601041752E-05</v>
+        <v>5.239494088423442E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.702862</v>
+        <v>0.2823265</v>
       </c>
       <c r="H3">
-        <v>1.405724</v>
+        <v>0.564653</v>
       </c>
       <c r="I3">
-        <v>0.002523336240378947</v>
+        <v>0.001772539408491501</v>
       </c>
       <c r="J3">
-        <v>0.001683640290439508</v>
+        <v>0.00118259232591025</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.387229</v>
       </c>
       <c r="O3">
-        <v>0.00057232134105847</v>
+        <v>0.0004659409472778155</v>
       </c>
       <c r="P3">
-        <v>0.0005755759360900281</v>
+        <v>0.0004679272111852156</v>
       </c>
       <c r="Q3">
-        <v>0.09072284979933332</v>
+        <v>0.03644166942283333</v>
       </c>
       <c r="R3">
-        <v>0.544337098796</v>
+        <v>0.218650016537</v>
       </c>
       <c r="S3">
-        <v>1.444159181035117E-06</v>
+        <v>8.258986910797887E-07</v>
       </c>
       <c r="T3">
-        <v>9.690628362086067E-07</v>
+        <v>5.533671290322208E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.702862</v>
+        <v>0.2823265</v>
       </c>
       <c r="H4">
-        <v>1.405724</v>
+        <v>0.564653</v>
       </c>
       <c r="I4">
-        <v>0.002523336240378947</v>
+        <v>0.001772539408491501</v>
       </c>
       <c r="J4">
-        <v>0.001683640290439508</v>
+        <v>0.00118259232591025</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.99294666666667</v>
+        <v>84.04053866666668</v>
       </c>
       <c r="N4">
-        <v>299.97884</v>
+        <v>252.121616</v>
       </c>
       <c r="O4">
-        <v>0.4433663077867728</v>
+        <v>0.3033703172754459</v>
       </c>
       <c r="P4">
-        <v>0.445887579804717</v>
+        <v>0.3046635573637042</v>
       </c>
       <c r="Q4">
-        <v>70.28124248002666</v>
+        <v>23.72687113987467</v>
       </c>
       <c r="R4">
-        <v>421.68745488016</v>
+        <v>142.361226839248</v>
       </c>
       <c r="S4">
-        <v>0.001118762272201371</v>
+        <v>0.0005377358427372978</v>
       </c>
       <c r="T4">
-        <v>0.000750714294365783</v>
+        <v>0.0003602927849228338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.2823265</v>
+      </c>
+      <c r="H5">
+        <v>0.564653</v>
+      </c>
+      <c r="I5">
+        <v>0.001772539408491501</v>
+      </c>
+      <c r="J5">
+        <v>0.00118259232591025</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.702862</v>
-      </c>
-      <c r="H5">
-        <v>1.405724</v>
-      </c>
-      <c r="I5">
-        <v>0.002523336240378947</v>
-      </c>
-      <c r="J5">
-        <v>0.001683640290439508</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1183615</v>
+        <v>1.6945155</v>
       </c>
       <c r="N5">
-        <v>0.236723</v>
+        <v>3.389031</v>
       </c>
       <c r="O5">
-        <v>0.0005248120291328291</v>
+        <v>0.00611687779515693</v>
       </c>
       <c r="P5">
-        <v>0.0003518643033425692</v>
+        <v>0.004095302326143554</v>
       </c>
       <c r="Q5">
-        <v>0.08319180061299999</v>
+        <v>0.47840663031075</v>
       </c>
       <c r="R5">
-        <v>0.332767202452</v>
+        <v>1.913626521243</v>
       </c>
       <c r="S5">
-        <v>1.32427721249768E-06</v>
+        <v>1.084240694884226E-05</v>
       </c>
       <c r="T5">
-        <v>5.924129178749784E-07</v>
+        <v>4.843073103179762E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.702862</v>
+        <v>0.2823265</v>
       </c>
       <c r="H6">
-        <v>1.405724</v>
+        <v>0.564653</v>
       </c>
       <c r="I6">
-        <v>0.002523336240378947</v>
+        <v>0.001772539408491501</v>
       </c>
       <c r="J6">
-        <v>0.001683640290439508</v>
+        <v>0.00118259232591025</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.037491</v>
+        <v>57.23348366666666</v>
       </c>
       <c r="N6">
-        <v>6.112473</v>
+        <v>171.700451</v>
       </c>
       <c r="O6">
-        <v>0.009034185829428295</v>
+        <v>0.2066019610797955</v>
       </c>
       <c r="P6">
-        <v>0.009085560143481048</v>
+        <v>0.2074826864611735</v>
       </c>
       <c r="Q6">
-        <v>1.432074999242</v>
+        <v>16.15852912641716</v>
       </c>
       <c r="R6">
-        <v>8.592449995451998</v>
+        <v>96.95117475850299</v>
       </c>
       <c r="S6">
-        <v>2.279628850571436E-05</v>
+        <v>0.0003662101178855648</v>
       </c>
       <c r="T6">
-        <v>1.529681511877605E-05</v>
+        <v>0.0002453674327682263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.702862</v>
+        <v>0.2823265</v>
       </c>
       <c r="H7">
-        <v>1.405724</v>
+        <v>0.564653</v>
       </c>
       <c r="I7">
-        <v>0.002523336240378947</v>
+        <v>0.001772539408491501</v>
       </c>
       <c r="J7">
-        <v>0.001683640290439508</v>
+        <v>0.00118259232591025</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>119.5459113333333</v>
+        <v>132.0921136666667</v>
       </c>
       <c r="N7">
-        <v>358.637734</v>
+        <v>396.276341</v>
       </c>
       <c r="O7">
-        <v>0.5300636803469029</v>
+        <v>0.4768273391438312</v>
       </c>
       <c r="P7">
-        <v>0.5330779705658836</v>
+        <v>0.4788600107502576</v>
       </c>
       <c r="Q7">
-        <v>84.02427833156933</v>
+        <v>37.29310412911217</v>
       </c>
       <c r="R7">
-        <v>504.145669989416</v>
+        <v>223.758624774673</v>
       </c>
       <c r="S7">
-        <v>0.001337528894327982</v>
+        <v>0.000845195249678583</v>
       </c>
       <c r="T7">
-        <v>0.0008975115491904476</v>
+        <v>0.0005662961738985544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.072213</v>
       </c>
       <c r="I8">
-        <v>8.641700169046221E-05</v>
+        <v>0.0001511257218213626</v>
       </c>
       <c r="J8">
-        <v>8.648974926337472E-05</v>
+        <v>0.0001512407436619603</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.7074385</v>
+        <v>1.833217</v>
       </c>
       <c r="N8">
-        <v>7.414877000000001</v>
+        <v>3.666434</v>
       </c>
       <c r="O8">
-        <v>0.01643869266670474</v>
+        <v>0.006617563758492739</v>
       </c>
       <c r="P8">
-        <v>0.01102144924648572</v>
+        <v>0.00443051588753594</v>
       </c>
       <c r="Q8">
-        <v>0.0892417521335</v>
+        <v>0.044127366407</v>
       </c>
       <c r="R8">
-        <v>0.5354505128010001</v>
+        <v>0.264764198442</v>
       </c>
       <c r="S8">
-        <v>1.420582531967612E-06</v>
+        <v>1.000084099701104E-06</v>
       </c>
       <c r="T8">
-        <v>9.532423818475605E-07</v>
+        <v>6.700745176370656E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.072213</v>
       </c>
       <c r="I9">
-        <v>8.641700169046221E-05</v>
+        <v>0.0001511257218213626</v>
       </c>
       <c r="J9">
-        <v>8.648974926337472E-05</v>
+        <v>0.0001512407436619603</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.387229</v>
       </c>
       <c r="O9">
-        <v>0.00057232134105847</v>
+        <v>0.0004659409472778155</v>
       </c>
       <c r="P9">
-        <v>0.0005755759360900281</v>
+        <v>0.0004679272111852156</v>
       </c>
       <c r="Q9">
-        <v>0.003106996419666666</v>
+        <v>0.003106996419666667</v>
       </c>
       <c r="R9">
         <v>0.027962967777</v>
       </c>
       <c r="S9">
-        <v>4.945829429773739E-08</v>
+        <v>7.041566198348931E-08</v>
       </c>
       <c r="T9">
-        <v>4.978141839445873E-08</v>
+        <v>7.076965939931915E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.072213</v>
       </c>
       <c r="I10">
-        <v>8.641700169046221E-05</v>
+        <v>0.0001511257218213626</v>
       </c>
       <c r="J10">
-        <v>8.648974926337472E-05</v>
+        <v>0.0001512407436619603</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>99.99294666666667</v>
+        <v>84.04053866666668</v>
       </c>
       <c r="N10">
-        <v>299.97884</v>
+        <v>252.121616</v>
       </c>
       <c r="O10">
-        <v>0.4433663077867728</v>
+        <v>0.3033703172754459</v>
       </c>
       <c r="P10">
-        <v>0.445887579804717</v>
+        <v>0.3046635573637042</v>
       </c>
       <c r="Q10">
-        <v>2.406930219213333</v>
+        <v>2.022939806245334</v>
       </c>
       <c r="R10">
-        <v>21.66237197292</v>
+        <v>18.206458256208</v>
       </c>
       <c r="S10">
-        <v>3.831438696950353E-05</v>
+        <v>4.584705817742755E-05</v>
       </c>
       <c r="T10">
-        <v>3.856470497696297E-05</v>
+        <v>4.607754298238492E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,40 +1107,40 @@
         <v>0.072213</v>
       </c>
       <c r="I11">
-        <v>8.641700169046221E-05</v>
+        <v>0.0001511257218213626</v>
       </c>
       <c r="J11">
-        <v>8.648974926337472E-05</v>
+        <v>0.0001512407436619603</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1183615</v>
+        <v>1.6945155</v>
       </c>
       <c r="N11">
-        <v>0.236723</v>
+        <v>3.389031</v>
       </c>
       <c r="O11">
-        <v>0.0005248120291328291</v>
+        <v>0.00611687779515693</v>
       </c>
       <c r="P11">
-        <v>0.0003518643033425692</v>
+        <v>0.004095302326143554</v>
       </c>
       <c r="Q11">
-        <v>0.0028490796665</v>
+        <v>0.0407886826005</v>
       </c>
       <c r="R11">
-        <v>0.017094477999</v>
+        <v>0.244732095603</v>
       </c>
       <c r="S11">
-        <v>4.535268200874659E-08</v>
+        <v>9.24417572086156E-07</v>
       </c>
       <c r="T11">
-        <v>3.043265537083084E-08</v>
+        <v>6.19376569326507E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.072213</v>
       </c>
       <c r="I12">
-        <v>8.641700169046221E-05</v>
+        <v>0.0001511257218213626</v>
       </c>
       <c r="J12">
-        <v>8.648974926337472E-05</v>
+        <v>0.0001512407436619603</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.037491</v>
+        <v>57.23348366666666</v>
       </c>
       <c r="N12">
-        <v>6.112473</v>
+        <v>171.700451</v>
       </c>
       <c r="O12">
-        <v>0.009034185829428295</v>
+        <v>0.2066019610797955</v>
       </c>
       <c r="P12">
-        <v>0.009085560143481048</v>
+        <v>0.2074826864611735</v>
       </c>
       <c r="Q12">
-        <v>0.04904444586099999</v>
+        <v>1.377667185340333</v>
       </c>
       <c r="R12">
-        <v>0.441400012749</v>
+        <v>12.399004668063</v>
       </c>
       <c r="S12">
-        <v>7.807072520936547E-07</v>
+        <v>3.122287049789315E-05</v>
       </c>
       <c r="T12">
-        <v>7.858078187269867E-07</v>
+        <v>3.137983579736922E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.072213</v>
       </c>
       <c r="I13">
-        <v>8.641700169046221E-05</v>
+        <v>0.0001511257218213626</v>
       </c>
       <c r="J13">
-        <v>8.648974926337472E-05</v>
+        <v>0.0001512407436619603</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>119.5459113333333</v>
+        <v>132.0921136666667</v>
       </c>
       <c r="N13">
-        <v>358.637734</v>
+        <v>396.276341</v>
       </c>
       <c r="O13">
-        <v>0.5300636803469029</v>
+        <v>0.4768273391438312</v>
       </c>
       <c r="P13">
-        <v>0.5330779705658836</v>
+        <v>0.4788600107502576</v>
       </c>
       <c r="Q13">
-        <v>2.877589631704667</v>
+        <v>3.179589268070333</v>
       </c>
       <c r="R13">
-        <v>25.898306685342</v>
+        <v>28.616303412633</v>
       </c>
       <c r="S13">
-        <v>4.580651396059093E-05</v>
+        <v>7.206087581227116E-05</v>
       </c>
       <c r="T13">
-        <v>4.610578001207192E-05</v>
+        <v>7.242314413584326E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>90.03339900000002</v>
+        <v>90.72504933333335</v>
       </c>
       <c r="H14">
-        <v>270.100197</v>
+        <v>272.175148</v>
       </c>
       <c r="I14">
-        <v>0.3232278008217797</v>
+        <v>0.5696019512184261</v>
       </c>
       <c r="J14">
-        <v>0.3234999004960066</v>
+        <v>0.5700354754659703</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.7074385</v>
+        <v>1.833217</v>
       </c>
       <c r="N14">
-        <v>7.414877000000001</v>
+        <v>3.666434</v>
       </c>
       <c r="O14">
-        <v>0.01643869266670474</v>
+        <v>0.006617563758492739</v>
       </c>
       <c r="P14">
-        <v>0.01102144924648572</v>
+        <v>0.00443051588753594</v>
       </c>
       <c r="Q14">
-        <v>333.7932897384616</v>
+        <v>166.3187027637053</v>
       </c>
       <c r="R14">
-        <v>2002.759738430769</v>
+        <v>997.9122165822321</v>
       </c>
       <c r="S14">
-        <v>0.00531344247904409</v>
+        <v>0.003769377229149805</v>
       </c>
       <c r="T14">
-        <v>0.003565437734559918</v>
+        <v>0.002525551230511085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>90.03339900000002</v>
+        <v>90.72504933333335</v>
       </c>
       <c r="H15">
-        <v>270.100197</v>
+        <v>272.175148</v>
       </c>
       <c r="I15">
-        <v>0.3232278008217797</v>
+        <v>0.5696019512184261</v>
       </c>
       <c r="J15">
-        <v>0.3234999004960066</v>
+        <v>0.5700354754659703</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.387229</v>
       </c>
       <c r="O15">
-        <v>0.00057232134105847</v>
+        <v>0.0004659409472778155</v>
       </c>
       <c r="P15">
-        <v>0.0005755759360900281</v>
+        <v>0.0004679272111852156</v>
       </c>
       <c r="Q15">
-        <v>11.621181020457</v>
+        <v>11.71045670943245</v>
       </c>
       <c r="R15">
-        <v>104.590629184113</v>
+        <v>105.394110384892</v>
       </c>
       <c r="S15">
-        <v>0.000184990168433701</v>
+        <v>0.0002654008727220054</v>
       </c>
       <c r="T15">
-        <v>0.0001861987580530199</v>
+        <v>0.0002667351103114298</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>90.03339900000002</v>
+        <v>90.72504933333335</v>
       </c>
       <c r="H16">
-        <v>270.100197</v>
+        <v>272.175148</v>
       </c>
       <c r="I16">
-        <v>0.3232278008217797</v>
+        <v>0.5696019512184261</v>
       </c>
       <c r="J16">
-        <v>0.3234999004960066</v>
+        <v>0.5700354754659703</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>99.99294666666667</v>
+        <v>84.04053866666668</v>
       </c>
       <c r="N16">
-        <v>299.97884</v>
+        <v>252.121616</v>
       </c>
       <c r="O16">
-        <v>0.4433663077867728</v>
+        <v>0.3033703172754459</v>
       </c>
       <c r="P16">
-        <v>0.445887579804717</v>
+        <v>0.3046635573637042</v>
       </c>
       <c r="Q16">
-        <v>9002.704864425721</v>
+        <v>7624.582016533242</v>
       </c>
       <c r="R16">
-        <v>81024.34377983148</v>
+        <v>68621.23814879918</v>
       </c>
       <c r="S16">
-        <v>0.1433083166243909</v>
+        <v>0.172800324661847</v>
       </c>
       <c r="T16">
-        <v>0.1442445876992312</v>
+        <v>0.1736690357789731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>90.03339900000002</v>
+        <v>90.72504933333335</v>
       </c>
       <c r="H17">
-        <v>270.100197</v>
+        <v>272.175148</v>
       </c>
       <c r="I17">
-        <v>0.3232278008217797</v>
+        <v>0.5696019512184261</v>
       </c>
       <c r="J17">
-        <v>0.3234999004960066</v>
+        <v>0.5700354754659703</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1183615</v>
+        <v>1.6945155</v>
       </c>
       <c r="N17">
-        <v>0.236723</v>
+        <v>3.389031</v>
       </c>
       <c r="O17">
-        <v>0.0005248120291328291</v>
+        <v>0.00611687779515693</v>
       </c>
       <c r="P17">
-        <v>0.0003518643033425692</v>
+        <v>0.004095302326143554</v>
       </c>
       <c r="Q17">
-        <v>10.6564881557385</v>
+        <v>153.735002333598</v>
       </c>
       <c r="R17">
-        <v>63.938928934431</v>
+        <v>922.4100140015881</v>
       </c>
       <c r="S17">
-        <v>0.0001696338380214201</v>
+        <v>0.003484185527486051</v>
       </c>
       <c r="T17">
-        <v>0.0001138280671194178</v>
+        <v>0.002334467608660135</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90.03339900000002</v>
+        <v>90.72504933333335</v>
       </c>
       <c r="H18">
-        <v>270.100197</v>
+        <v>272.175148</v>
       </c>
       <c r="I18">
-        <v>0.3232278008217797</v>
+        <v>0.5696019512184261</v>
       </c>
       <c r="J18">
-        <v>0.3234999004960066</v>
+        <v>0.5700354754659703</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.037491</v>
+        <v>57.23348366666666</v>
       </c>
       <c r="N18">
-        <v>6.112473</v>
+        <v>171.700451</v>
       </c>
       <c r="O18">
-        <v>0.009034185829428295</v>
+        <v>0.2066019610797955</v>
       </c>
       <c r="P18">
-        <v>0.009085560143481048</v>
+        <v>0.2074826864611735</v>
       </c>
       <c r="Q18">
-        <v>183.442240161909</v>
+        <v>5192.510629176862</v>
       </c>
       <c r="R18">
-        <v>1650.980161457181</v>
+        <v>46732.59566259175</v>
       </c>
       <c r="S18">
-        <v>0.002920100017861394</v>
+        <v>0.1176808801566048</v>
       </c>
       <c r="T18">
-        <v>0.002939177802366602</v>
+        <v>0.1182724918278519</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>90.03339900000002</v>
+        <v>90.72504933333335</v>
       </c>
       <c r="H19">
-        <v>270.100197</v>
+        <v>272.175148</v>
       </c>
       <c r="I19">
-        <v>0.3232278008217797</v>
+        <v>0.5696019512184261</v>
       </c>
       <c r="J19">
-        <v>0.3234999004960066</v>
+        <v>0.5700354754659703</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>119.5459113333333</v>
+        <v>132.0921136666667</v>
       </c>
       <c r="N19">
-        <v>358.637734</v>
+        <v>396.276341</v>
       </c>
       <c r="O19">
-        <v>0.5300636803469029</v>
+        <v>0.4768273391438312</v>
       </c>
       <c r="P19">
-        <v>0.5330779705658836</v>
+        <v>0.4788600107502576</v>
       </c>
       <c r="Q19">
-        <v>10763.12473389262</v>
+        <v>11984.06352895261</v>
       </c>
       <c r="R19">
-        <v>96868.12260503361</v>
+        <v>107856.5717605735</v>
       </c>
       <c r="S19">
-        <v>0.1713313176940282</v>
+        <v>0.2716017827706165</v>
       </c>
       <c r="T19">
-        <v>0.1724506704346765</v>
+        <v>0.2729671939096627</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.7574056666666666</v>
+        <v>0.0810765</v>
       </c>
       <c r="H20">
-        <v>2.272217</v>
+        <v>0.162153</v>
       </c>
       <c r="I20">
-        <v>0.002719152788695899</v>
+        <v>0.0005090251582921234</v>
       </c>
       <c r="J20">
-        <v>0.002721441826291354</v>
+        <v>0.0003396083850140258</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.7074385</v>
+        <v>1.833217</v>
       </c>
       <c r="N20">
-        <v>7.414877000000001</v>
+        <v>3.666434</v>
       </c>
       <c r="O20">
-        <v>0.01643869266670474</v>
+        <v>0.006617563758492739</v>
       </c>
       <c r="P20">
-        <v>0.01102144924648572</v>
+        <v>0.00443051588753594</v>
       </c>
       <c r="Q20">
-        <v>2.808034928718167</v>
+        <v>0.1486308181005</v>
       </c>
       <c r="R20">
-        <v>16.848209572309</v>
+        <v>0.594523272402</v>
       </c>
       <c r="S20">
-        <v>4.469931700718502E-05</v>
+        <v>3.368506439674985E-06</v>
       </c>
       <c r="T20">
-        <v>2.999423296573357E-05</v>
+        <v>1.504640345345064E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.7574056666666666</v>
+        <v>0.0810765</v>
       </c>
       <c r="H21">
-        <v>2.272217</v>
+        <v>0.162153</v>
       </c>
       <c r="I21">
-        <v>0.002719152788695899</v>
+        <v>0.0005090251582921234</v>
       </c>
       <c r="J21">
-        <v>0.002721441826291354</v>
+        <v>0.0003396083850140258</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.387229</v>
       </c>
       <c r="O21">
-        <v>0.00057232134105847</v>
+        <v>0.0004659409472778155</v>
       </c>
       <c r="P21">
-        <v>0.0005755759360900281</v>
+        <v>0.0004679272111852156</v>
       </c>
       <c r="Q21">
-        <v>0.09776314629922221</v>
+        <v>0.0104650573395</v>
       </c>
       <c r="R21">
-        <v>0.8798683166929999</v>
+        <v>0.062790344037</v>
       </c>
       <c r="S21">
-        <v>1.556229170569316E-06</v>
+        <v>2.371756644428719E-07</v>
       </c>
       <c r="T21">
-        <v>1.566396426682202E-06</v>
+        <v>1.589120044947281E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.7574056666666666</v>
+        <v>0.0810765</v>
       </c>
       <c r="H22">
-        <v>2.272217</v>
+        <v>0.162153</v>
       </c>
       <c r="I22">
-        <v>0.002719152788695899</v>
+        <v>0.0005090251582921234</v>
       </c>
       <c r="J22">
-        <v>0.002721441826291354</v>
+        <v>0.0003396083850140258</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>99.99294666666667</v>
+        <v>84.04053866666668</v>
       </c>
       <c r="N22">
-        <v>299.97884</v>
+        <v>252.121616</v>
       </c>
       <c r="O22">
-        <v>0.4433663077867728</v>
+        <v>0.3033703172754459</v>
       </c>
       <c r="P22">
-        <v>0.445887579804717</v>
+        <v>0.3046635573637042</v>
       </c>
       <c r="Q22">
-        <v>75.73522443203112</v>
+        <v>6.813712733208001</v>
       </c>
       <c r="R22">
-        <v>681.61701988828</v>
+        <v>40.882276399248</v>
       </c>
       <c r="S22">
-        <v>0.001205580732232208</v>
+        <v>0.0001544231237722655</v>
       </c>
       <c r="T22">
-        <v>0.001213457109504381</v>
+        <v>0.0001034662986889156</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.0810765</v>
+      </c>
+      <c r="H23">
+        <v>0.162153</v>
+      </c>
+      <c r="I23">
+        <v>0.0005090251582921234</v>
+      </c>
+      <c r="J23">
+        <v>0.0003396083850140258</v>
+      </c>
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.7574056666666666</v>
-      </c>
-      <c r="H23">
-        <v>2.272217</v>
-      </c>
-      <c r="I23">
-        <v>0.002719152788695899</v>
-      </c>
-      <c r="J23">
-        <v>0.002721441826291354</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1183615</v>
+        <v>1.6945155</v>
       </c>
       <c r="N23">
-        <v>0.236723</v>
+        <v>3.389031</v>
       </c>
       <c r="O23">
-        <v>0.0005248120291328291</v>
+        <v>0.00611687779515693</v>
       </c>
       <c r="P23">
-        <v>0.0003518643033425692</v>
+        <v>0.004095302326143554</v>
       </c>
       <c r="Q23">
-        <v>0.08964767081516666</v>
+        <v>0.13738538593575</v>
       </c>
       <c r="R23">
-        <v>0.537886024891</v>
+        <v>0.549541543743</v>
       </c>
       <c r="S23">
-        <v>1.427044092557686E-06</v>
+        <v>3.113644687933331E-06</v>
       </c>
       <c r="T23">
-        <v>9.575782322953364E-07</v>
+        <v>1.390799009125796E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.7574056666666666</v>
+        <v>0.0810765</v>
       </c>
       <c r="H24">
-        <v>2.272217</v>
+        <v>0.162153</v>
       </c>
       <c r="I24">
-        <v>0.002719152788695899</v>
+        <v>0.0005090251582921234</v>
       </c>
       <c r="J24">
-        <v>0.002721441826291354</v>
+        <v>0.0003396083850140258</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.037491</v>
+        <v>57.23348366666666</v>
       </c>
       <c r="N24">
-        <v>6.112473</v>
+        <v>171.700451</v>
       </c>
       <c r="O24">
-        <v>0.009034185829428295</v>
+        <v>0.2066019610797955</v>
       </c>
       <c r="P24">
-        <v>0.009085560143481048</v>
+        <v>0.2074826864611735</v>
       </c>
       <c r="Q24">
-        <v>1.543207229182333</v>
+        <v>4.6402905385005</v>
       </c>
       <c r="R24">
-        <v>13.888865062641</v>
+        <v>27.841743231003</v>
       </c>
       <c r="S24">
-        <v>2.456533159168693E-05</v>
+        <v>0.000105165595942106</v>
       </c>
       <c r="T24">
-        <v>2.4725823389755E-05</v>
+        <v>7.046286006745061E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.7574056666666666</v>
+        <v>0.0810765</v>
       </c>
       <c r="H25">
-        <v>2.272217</v>
+        <v>0.162153</v>
       </c>
       <c r="I25">
-        <v>0.002719152788695899</v>
+        <v>0.0005090251582921234</v>
       </c>
       <c r="J25">
-        <v>0.002721441826291354</v>
+        <v>0.0003396083850140258</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>119.5459113333333</v>
+        <v>132.0921136666667</v>
       </c>
       <c r="N25">
-        <v>358.637734</v>
+        <v>396.276341</v>
       </c>
       <c r="O25">
-        <v>0.5300636803469029</v>
+        <v>0.4768273391438312</v>
       </c>
       <c r="P25">
-        <v>0.5330779705658836</v>
+        <v>0.4788600107502576</v>
       </c>
       <c r="Q25">
-        <v>90.54475067069755</v>
+        <v>10.7095662536955</v>
       </c>
       <c r="R25">
-        <v>814.902756036278</v>
+        <v>64.25739752217299</v>
       </c>
       <c r="S25">
-        <v>0.001441324134601693</v>
+        <v>0.0002427171117857007</v>
       </c>
       <c r="T25">
-        <v>0.001450740685772507</v>
+        <v>0.000162624874898694</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>187.0269876666667</v>
+        <v>14.29725633333333</v>
       </c>
       <c r="H26">
-        <v>561.080963</v>
+        <v>42.891769</v>
       </c>
       <c r="I26">
-        <v>0.6714432931474549</v>
+        <v>0.08976291734618619</v>
       </c>
       <c r="J26">
-        <v>0.6720085276379992</v>
+        <v>0.08983123593448569</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.7074385</v>
+        <v>1.833217</v>
       </c>
       <c r="N26">
-        <v>7.414877000000001</v>
+        <v>3.666434</v>
       </c>
       <c r="O26">
-        <v>0.01643869266670474</v>
+        <v>0.006617563758492739</v>
       </c>
       <c r="P26">
-        <v>0.01102144924648572</v>
+        <v>0.00443051588753594</v>
       </c>
       <c r="Q26">
-        <v>693.3910546144252</v>
+        <v>26.20997336362433</v>
       </c>
       <c r="R26">
-        <v>4160.346327686551</v>
+        <v>157.259840181746</v>
       </c>
       <c r="S26">
-        <v>0.01103764993917115</v>
+        <v>0.0005940118286867009</v>
       </c>
       <c r="T26">
-        <v>0.007406507880567807</v>
+        <v>0.0003979987180047283</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>187.0269876666667</v>
+        <v>14.29725633333333</v>
       </c>
       <c r="H27">
-        <v>561.080963</v>
+        <v>42.891769</v>
       </c>
       <c r="I27">
-        <v>0.6714432931474549</v>
+        <v>0.08976291734618619</v>
       </c>
       <c r="J27">
-        <v>0.6720085276379992</v>
+        <v>0.08983123593448569</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.387229</v>
       </c>
       <c r="O27">
-        <v>0.00057232134105847</v>
+        <v>0.0004659409472778155</v>
       </c>
       <c r="P27">
-        <v>0.0005755759360900281</v>
+        <v>0.0004679272111852156</v>
       </c>
       <c r="Q27">
-        <v>24.14075780239189</v>
+        <v>1.845437424233444</v>
       </c>
       <c r="R27">
-        <v>217.266820221527</v>
+        <v>16.608936818101</v>
       </c>
       <c r="S27">
-        <v>0.0003842813259788668</v>
+        <v>4.182421873870225E-05</v>
       </c>
       <c r="T27">
-        <v>0.0003867919373557229</v>
+        <v>4.203447970814501E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>187.0269876666667</v>
+        <v>14.29725633333333</v>
       </c>
       <c r="H28">
-        <v>561.080963</v>
+        <v>42.891769</v>
       </c>
       <c r="I28">
-        <v>0.6714432931474549</v>
+        <v>0.08976291734618619</v>
       </c>
       <c r="J28">
-        <v>0.6720085276379992</v>
+        <v>0.08983123593448569</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>99.99294666666667</v>
+        <v>84.04053866666668</v>
       </c>
       <c r="N28">
-        <v>299.97884</v>
+        <v>252.121616</v>
       </c>
       <c r="O28">
-        <v>0.4433663077867728</v>
+        <v>0.3033703172754459</v>
       </c>
       <c r="P28">
-        <v>0.445887579804717</v>
+        <v>0.3046635573637042</v>
       </c>
       <c r="Q28">
-        <v>18701.37960298032</v>
+        <v>1201.549123708745</v>
       </c>
       <c r="R28">
-        <v>168312.4164268229</v>
+        <v>10813.9421133787</v>
       </c>
       <c r="S28">
-        <v>0.2976953337709788</v>
+        <v>0.02723140471488213</v>
       </c>
       <c r="T28">
-        <v>0.2996402559966388</v>
+        <v>0.02736830390217863</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>187.0269876666667</v>
+        <v>14.29725633333333</v>
       </c>
       <c r="H29">
-        <v>561.080963</v>
+        <v>42.891769</v>
       </c>
       <c r="I29">
-        <v>0.6714432931474549</v>
+        <v>0.08976291734618619</v>
       </c>
       <c r="J29">
-        <v>0.6720085276379992</v>
+        <v>0.08983123593448569</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1183615</v>
+        <v>1.6945155</v>
       </c>
       <c r="N29">
-        <v>0.236723</v>
+        <v>3.389031</v>
       </c>
       <c r="O29">
-        <v>0.0005248120291328291</v>
+        <v>0.00611687779515693</v>
       </c>
       <c r="P29">
-        <v>0.0003518643033425692</v>
+        <v>0.004095302326143554</v>
       </c>
       <c r="Q29">
-        <v>22.13679480070816</v>
+        <v>24.2269224643065</v>
       </c>
       <c r="R29">
-        <v>132.820768804249</v>
+        <v>145.361534785839</v>
       </c>
       <c r="S29">
-        <v>0.0003523815171243448</v>
+        <v>0.0005490687959433931</v>
       </c>
       <c r="T29">
-        <v>0.0002364558124176103</v>
+        <v>0.0003678860694828497</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>187.0269876666667</v>
+        <v>14.29725633333333</v>
       </c>
       <c r="H30">
-        <v>561.080963</v>
+        <v>42.891769</v>
       </c>
       <c r="I30">
-        <v>0.6714432931474549</v>
+        <v>0.08976291734618619</v>
       </c>
       <c r="J30">
-        <v>0.6720085276379992</v>
+        <v>0.08983123593448569</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.037491</v>
+        <v>57.23348366666666</v>
       </c>
       <c r="N30">
-        <v>6.112473</v>
+        <v>171.700451</v>
       </c>
       <c r="O30">
-        <v>0.009034185829428295</v>
+        <v>0.2066019610797955</v>
       </c>
       <c r="P30">
-        <v>0.009085560143481048</v>
+        <v>0.2074826864611735</v>
       </c>
       <c r="Q30">
-        <v>381.0658041279443</v>
+        <v>818.2817868319797</v>
       </c>
       <c r="R30">
-        <v>3429.592237151499</v>
+        <v>7364.536081487818</v>
       </c>
       <c r="S30">
-        <v>0.006065943484217406</v>
+        <v>0.01854519475596566</v>
       </c>
       <c r="T30">
-        <v>0.006105573894787187</v>
+        <v>0.0186384261598146</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.29725633333333</v>
+      </c>
+      <c r="H31">
+        <v>42.891769</v>
+      </c>
+      <c r="I31">
+        <v>0.08976291734618619</v>
+      </c>
+      <c r="J31">
+        <v>0.08983123593448569</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>132.0921136666667</v>
+      </c>
+      <c r="N31">
+        <v>396.276341</v>
+      </c>
+      <c r="O31">
+        <v>0.4768273391438312</v>
+      </c>
+      <c r="P31">
+        <v>0.4788600107502576</v>
+      </c>
+      <c r="Q31">
+        <v>1888.554808704137</v>
+      </c>
+      <c r="R31">
+        <v>16996.99327833723</v>
+      </c>
+      <c r="S31">
+        <v>0.04280141303196961</v>
+      </c>
+      <c r="T31">
+        <v>0.04301658660529675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.86820233333334</v>
+      </c>
+      <c r="H32">
+        <v>161.604607</v>
+      </c>
+      <c r="I32">
+        <v>0.3382024411467828</v>
+      </c>
+      <c r="J32">
+        <v>0.3384598471449578</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.833217</v>
+      </c>
+      <c r="N32">
+        <v>3.666434</v>
+      </c>
+      <c r="O32">
+        <v>0.006617563758492739</v>
+      </c>
+      <c r="P32">
+        <v>0.00443051588753594</v>
+      </c>
+      <c r="Q32">
+        <v>98.75210427690634</v>
+      </c>
+      <c r="R32">
+        <v>592.5126256614381</v>
+      </c>
+      <c r="S32">
+        <v>0.002238076217566724</v>
+      </c>
+      <c r="T32">
+        <v>0.001499551730068721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.86820233333334</v>
+      </c>
+      <c r="H33">
+        <v>161.604607</v>
+      </c>
+      <c r="I33">
+        <v>0.3382024411467828</v>
+      </c>
+      <c r="J33">
+        <v>0.3384598471449578</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1290763333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.387229</v>
+      </c>
+      <c r="O33">
+        <v>0.0004659409472778155</v>
+      </c>
+      <c r="P33">
+        <v>0.0004679272111852156</v>
+      </c>
+      <c r="Q33">
+        <v>6.953110040444779</v>
+      </c>
+      <c r="R33">
+        <v>62.57799036400301</v>
+      </c>
+      <c r="S33">
+        <v>0.0001575823657996016</v>
+      </c>
+      <c r="T33">
+        <v>0.0001583745723727144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.86820233333334</v>
+      </c>
+      <c r="H34">
+        <v>161.604607</v>
+      </c>
+      <c r="I34">
+        <v>0.3382024411467828</v>
+      </c>
+      <c r="J34">
+        <v>0.3384598471449578</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.04053866666668</v>
+      </c>
+      <c r="N34">
+        <v>252.121616</v>
+      </c>
+      <c r="O34">
+        <v>0.3033703172754459</v>
+      </c>
+      <c r="P34">
+        <v>0.3046635573637042</v>
+      </c>
+      <c r="Q34">
+        <v>4527.112741098324</v>
+      </c>
+      <c r="R34">
+        <v>40744.01466988492</v>
+      </c>
+      <c r="S34">
+        <v>0.1026005818740298</v>
+      </c>
+      <c r="T34">
+        <v>0.1031163810559584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.86820233333334</v>
+      </c>
+      <c r="H35">
+        <v>161.604607</v>
+      </c>
+      <c r="I35">
+        <v>0.3382024411467828</v>
+      </c>
+      <c r="J35">
+        <v>0.3384598471449578</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.6945155</v>
+      </c>
+      <c r="N35">
+        <v>3.389031</v>
+      </c>
+      <c r="O35">
+        <v>0.00611687779515693</v>
+      </c>
+      <c r="P35">
+        <v>0.004095302326143554</v>
+      </c>
+      <c r="Q35">
+        <v>91.28050381096951</v>
+      </c>
+      <c r="R35">
+        <v>547.6830228658171</v>
+      </c>
+      <c r="S35">
+        <v>0.002068743002518625</v>
+      </c>
+      <c r="T35">
+        <v>0.001386095399318937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>187.0269876666667</v>
-      </c>
-      <c r="H31">
-        <v>561.080963</v>
-      </c>
-      <c r="I31">
-        <v>0.6714432931474549</v>
-      </c>
-      <c r="J31">
-        <v>0.6720085276379992</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>119.5459113333333</v>
-      </c>
-      <c r="N31">
-        <v>358.637734</v>
-      </c>
-      <c r="O31">
-        <v>0.5300636803469029</v>
-      </c>
-      <c r="P31">
-        <v>0.5330779705658836</v>
-      </c>
-      <c r="Q31">
-        <v>22358.31168453976</v>
-      </c>
-      <c r="R31">
-        <v>201224.8051608579</v>
-      </c>
-      <c r="S31">
-        <v>0.3559077031099843</v>
-      </c>
-      <c r="T31">
-        <v>0.3582329421162321</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.86820233333334</v>
+      </c>
+      <c r="H36">
+        <v>161.604607</v>
+      </c>
+      <c r="I36">
+        <v>0.3382024411467828</v>
+      </c>
+      <c r="J36">
+        <v>0.3384598471449578</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>57.23348366666666</v>
+      </c>
+      <c r="N36">
+        <v>171.700451</v>
+      </c>
+      <c r="O36">
+        <v>0.2066019610797955</v>
+      </c>
+      <c r="P36">
+        <v>0.2074826864611735</v>
+      </c>
+      <c r="Q36">
+        <v>3083.064878397528</v>
+      </c>
+      <c r="R36">
+        <v>27747.58390557776</v>
+      </c>
+      <c r="S36">
+        <v>0.06987328758289944</v>
+      </c>
+      <c r="T36">
+        <v>0.07022455834487398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.86820233333334</v>
+      </c>
+      <c r="H37">
+        <v>161.604607</v>
+      </c>
+      <c r="I37">
+        <v>0.3382024411467828</v>
+      </c>
+      <c r="J37">
+        <v>0.3384598471449578</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>132.0921136666667</v>
+      </c>
+      <c r="N37">
+        <v>396.276341</v>
+      </c>
+      <c r="O37">
+        <v>0.4768273391438312</v>
+      </c>
+      <c r="P37">
+        <v>0.4788600107502576</v>
+      </c>
+      <c r="Q37">
+        <v>7115.564705633667</v>
+      </c>
+      <c r="R37">
+        <v>64040.08235070299</v>
+      </c>
+      <c r="S37">
+        <v>0.1612641701039687</v>
+      </c>
+      <c r="T37">
+        <v>0.162074886042365</v>
       </c>
     </row>
   </sheetData>
